--- a/reports/poster/Charts.xlsx
+++ b/reports/poster/Charts.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
   <si>
     <t>Tests</t>
   </si>
@@ -62,12 +63,18 @@
   <si>
     <t>Mutisource</t>
   </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,16 +96,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE7E18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3D8CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ECE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,16 +161,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -152,7 +291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -171,7 +310,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.000479127331081186"/>
+          <c:y val="0.296296296296296"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -185,7 +331,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -233,11 +379,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -353,11 +501,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -473,11 +623,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -593,11 +745,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -713,11 +867,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -833,11 +989,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -939,11 +1097,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-360792608"/>
-        <c:axId val="-360789776"/>
+        <c:axId val="-1041898464"/>
+        <c:axId val="-1041895632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-360792608"/>
+        <c:axId val="-1041898464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -1000,7 +1158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360789776"/>
+        <c:crossAx val="-1041895632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1008,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-360789776"/>
+        <c:axId val="-1041895632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360792608"/>
+        <c:crossAx val="-1041898464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,6 +1295,685 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>McSema Evaluation of LLVM testsuite</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pass</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UnitTests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mutisource</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Output DIff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UnitTests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mutisource</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Crash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UnitTests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mutisource</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Unsupported</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UnitTests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mutisource</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1044040016"/>
+        <c:axId val="-1044037696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1044040016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1044037696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1044037696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1044040016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1145,7 +1982,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1190,6 +2027,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -1739,20 +2616,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1365250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1772,6 +3154,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2057,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2198,9 +3610,398 @@
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
     </row>
+    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(16,7)</f>
+        <v>23</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I11:AB35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="17:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="17:25" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="17:25" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="17:25" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="17:25" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="17:25" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="9:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:28" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="9:28" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+      <c r="J24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+      <c r="J25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+      <c r="J26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="9:28" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
+      <c r="J28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="7"/>
+      <c r="J29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="7"/>
+      <c r="J30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="9:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="25:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="25:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB34" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="25:28" ht="50" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>